--- a/bom.xlsx
+++ b/bom.xlsx
@@ -4,17 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16980" tabRatio="500" activeTab="1"/>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="11080" windowHeight="16980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="kc705" sheetId="2" r:id="rId2"/>
-    <sheet name="ac701" sheetId="3" r:id="rId3"/>
+    <sheet name="ac701_orig" sheetId="4" r:id="rId2"/>
+    <sheet name="kc705" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ac701'!$A$1:$N$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'kc705'!$A$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'kc705'!$A$1:$K$40</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="426">
   <si>
     <t>QTY</t>
   </si>
@@ -959,13 +957,358 @@
   </si>
   <si>
     <t>IC Demux</t>
+  </si>
+  <si>
+    <t>Item#</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>CBL1</t>
+  </si>
+  <si>
+    <t>PCIE Adapter Cable</t>
+  </si>
+  <si>
+    <t>MECH_PCIE_ADAPTER_CABLE</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>SOT_23</t>
+  </si>
+  <si>
+    <t>460MW</t>
+  </si>
+  <si>
+    <t>DIMMCAGE1</t>
+  </si>
+  <si>
+    <t>SODIMM_CAGE</t>
+  </si>
+  <si>
+    <t>LEADER TECH</t>
+  </si>
+  <si>
+    <t>20S-CBSFNSV-1.50X3.0X0.35</t>
+  </si>
+  <si>
+    <t>MJB1,MJB2,MJB3,MJB4,MJB5,MJB6,MJB7,MJB8,MJB9,MJB10,MJB11,MJB12,MJB13,MJB14,MJB15</t>
+  </si>
+  <si>
+    <t>Shunt</t>
+  </si>
+  <si>
+    <t>JUMPER_BLOCK_2-PIN</t>
+  </si>
+  <si>
+    <t>ADAMTECH</t>
+  </si>
+  <si>
+    <t>MSDA-G</t>
+  </si>
+  <si>
+    <t>S9002-ND</t>
+  </si>
+  <si>
+    <t>MMD1</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>DDR3_SODIMM</t>
+  </si>
+  <si>
+    <t>MT8JTF12864HZ-1G6G1</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>MSTK1</t>
+  </si>
+  <si>
+    <t>PCIE_POWER_STICKER</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>PCIE_4LANE_EDGE</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>RJ45_HFJ11_1G01E</t>
+  </si>
+  <si>
+    <t>RJ45</t>
+  </si>
+  <si>
+    <t>Halo</t>
+  </si>
+  <si>
+    <t>HFJ11-1G01ERL</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PWR_BRICK_12V</t>
+  </si>
+  <si>
+    <t>LTE</t>
+  </si>
+  <si>
+    <t>LTE60E-S2-1</t>
+  </si>
+  <si>
+    <t>PL1</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>PURCELL</t>
+  </si>
+  <si>
+    <t>P1155-0003</t>
+  </si>
+  <si>
+    <t>Q1,Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q18,Q19,Q20,Q21</t>
+  </si>
+  <si>
+    <t>Mosfet</t>
+  </si>
+  <si>
+    <t>NDS331N</t>
+  </si>
+  <si>
+    <t>20V</t>
+  </si>
+  <si>
+    <t>NDS331NTR-ND</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>SOT_223</t>
+  </si>
+  <si>
+    <t>NDT3055L</t>
+  </si>
+  <si>
+    <t>60V</t>
+  </si>
+  <si>
+    <t>1.3W</t>
+  </si>
+  <si>
+    <t>NDT3055LCT-ND</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SDA03H1SBD</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>CKN6062-ND</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SDA04H1SBD</t>
+  </si>
+  <si>
+    <t>CKN6068-ND</t>
+  </si>
+  <si>
+    <t>SW3,SW4,SW5,SW6,SW7,SW8,SW9</t>
+  </si>
+  <si>
+    <t>TL3301EF100QG</t>
+  </si>
+  <si>
+    <t>Eswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612-TL3301EF </t>
+  </si>
+  <si>
+    <t>SW10</t>
+  </si>
+  <si>
+    <t>EVQ-WK4001</t>
+  </si>
+  <si>
+    <t>P13382S-ND</t>
+  </si>
+  <si>
+    <t>SW15</t>
+  </si>
+  <si>
+    <t>1201M2S3AQE2</t>
+  </si>
+  <si>
+    <t>CKN5054-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBG676 </t>
+  </si>
+  <si>
+    <t>TSSOP8_65P440X300MM</t>
+  </si>
+  <si>
+    <t>MLF_32</t>
+  </si>
+  <si>
+    <t>SC70_6</t>
+  </si>
+  <si>
+    <t>SOP2_16</t>
+  </si>
+  <si>
+    <t>VQFN_64</t>
+  </si>
+  <si>
+    <t>TSOT_5</t>
+  </si>
+  <si>
+    <t>SC70_5</t>
+  </si>
+  <si>
+    <t>QFN_64</t>
+  </si>
+  <si>
+    <t>TSSOP_28</t>
+  </si>
+  <si>
+    <t>MSOP_8</t>
+  </si>
+  <si>
+    <t>TSSOP_20</t>
+  </si>
+  <si>
+    <t>QFN36_6X6MM</t>
+  </si>
+  <si>
+    <t>DIGILENT_USB_JTAG2</t>
+  </si>
+  <si>
+    <t>CON_MOLEX_SD_67840</t>
+  </si>
+  <si>
+    <t>SI570</t>
+  </si>
+  <si>
+    <t>SOT23_3</t>
+  </si>
+  <si>
+    <t>SON10_TPS51200</t>
+  </si>
+  <si>
+    <t>QFN_28</t>
+  </si>
+  <si>
+    <t>TO_PMOD_7</t>
+  </si>
+  <si>
+    <t>LQFP100_14X14</t>
+  </si>
+  <si>
+    <t>TZA_TO_PMOD_11</t>
+  </si>
+  <si>
+    <t>QFN_24</t>
+  </si>
+  <si>
+    <t>BQFN_47</t>
+  </si>
+  <si>
+    <t>SOT223_6</t>
+  </si>
+  <si>
+    <t>SSOP_16</t>
+  </si>
+  <si>
+    <t>SOIC_14</t>
+  </si>
+  <si>
+    <t>SOT_233_4</t>
+  </si>
+  <si>
+    <t>SOT143</t>
+  </si>
+  <si>
+    <t>FBG484 Package</t>
+  </si>
+  <si>
+    <t>FBG676 Package</t>
+  </si>
+  <si>
+    <t>DDR3 SODIMM</t>
+  </si>
+  <si>
+    <t>Quad SPI Flash</t>
+  </si>
+  <si>
+    <t>IIC EEPROM</t>
+  </si>
+  <si>
+    <t>SD Card</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>JTAG Header</t>
+  </si>
+  <si>
+    <t>PCI Express x4</t>
+  </si>
+  <si>
+    <t>Digilent USB JTAG</t>
+  </si>
+  <si>
+    <t>PCI Express x8</t>
+  </si>
+  <si>
+    <t>BPI?</t>
+  </si>
+  <si>
+    <t>Ethernet Port</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1010,6 +1353,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1034,7 +1409,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1058,8 +1433,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1085,29 +1526,82 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1119,6 +1613,39 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1130,6 +1657,39 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1459,17 +2019,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -1478,12 +2184,2321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="112">
+      <c r="A4" s="6">
+        <v>81</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" s="14" customFormat="1">
+      <c r="A5" s="10">
+        <v>82</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6">
+        <v>89</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6">
+        <v>250446</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="6">
+        <v>250446</v>
+      </c>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10">
+        <v>90</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="6">
+        <v>93</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="6">
+        <v>94</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="6">
+        <v>95</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" ht="98">
+      <c r="A11" s="6">
+        <v>96</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="6">
+        <v>97</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="6">
+        <v>180</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="6">
+        <v>181</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="42">
+      <c r="A15" s="6">
+        <v>182</v>
+      </c>
+      <c r="B15" s="6">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="6">
+        <v>183</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="6">
+        <v>184</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" s="14" customFormat="1">
+      <c r="A18" s="24">
+        <v>185</v>
+      </c>
+      <c r="B18" s="24">
+        <v>1</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" s="24"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="6">
+        <v>186</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="6">
+        <v>187</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="6">
+        <v>188</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" s="14" customFormat="1">
+      <c r="A22" s="10">
+        <v>189</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" s="14" customFormat="1">
+      <c r="A23" s="10">
+        <v>190</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="6">
+        <v>191</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="6">
+        <v>192</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="6">
+        <v>193</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" s="14" customFormat="1">
+      <c r="A27" s="10">
+        <v>194</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="6">
+        <v>195</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" ht="42">
+      <c r="A29" s="6">
+        <v>196</v>
+      </c>
+      <c r="B29" s="6">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="6">
+        <v>197</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="6">
+        <v>198</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" s="14" customFormat="1">
+      <c r="A32" s="10">
+        <v>199</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="6">
+        <v>200</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" ht="42">
+      <c r="A34" s="6">
+        <v>201</v>
+      </c>
+      <c r="B34" s="6">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" s="14" customFormat="1">
+      <c r="A35" s="10">
+        <v>202</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="6">
+        <v>203</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="6">
+        <v>204</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="6">
+        <v>205</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="6">
+        <v>206</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="6">
+        <v>207</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="6">
+        <v>208</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="6">
+        <v>209</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="6">
+        <v>210</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="6">
+        <v>211</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="6">
+        <v>212</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="6">
+        <v>213</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="6">
+        <v>214</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="6">
+        <v>215</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" ht="28">
+      <c r="A49" s="6">
+        <v>216</v>
+      </c>
+      <c r="B49" s="6">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" ht="28">
+      <c r="A50" s="6">
+        <v>217</v>
+      </c>
+      <c r="B50" s="6">
+        <v>4</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="6">
+        <v>218</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="6">
+        <v>219</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="6">
+        <v>220</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="6">
+        <v>221</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="6">
+        <v>222</v>
+      </c>
+      <c r="B55" s="6">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="6">
+        <v>223</v>
+      </c>
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="6">
+        <v>224</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="6">
+        <v>225</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="6">
+        <v>226</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="6">
+        <v>227</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O60" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2553,1859 +5568,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N105"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="1">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="28">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="28">
-      <c r="A15" s="6">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6">
-        <v>2</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6">
-        <v>2</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6">
-        <v>2</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6">
-        <v>9</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6">
-        <v>3</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6">
-        <v>1</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6">
-        <v>1</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="6">
-        <v>1</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>2</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="6">
-        <v>3</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="6">
-        <v>1</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="6">
-        <v>5</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="6">
-        <v>2</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="6">
-        <v>1</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="6">
-        <v>7</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="6">
-        <v>1</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="6">
-        <v>1</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="9">
-        <v>1</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="6">
-        <v>3</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="6">
-        <v>1</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="6">
-        <v>1</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="6">
-        <v>1</v>
-      </c>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="6">
-        <v>1</v>
-      </c>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="6">
-        <v>9</v>
-      </c>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="6">
-        <v>1</v>
-      </c>
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="6">
-        <v>1</v>
-      </c>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="6">
-        <v>1</v>
-      </c>
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="6">
-        <v>2</v>
-      </c>
-      <c r="N58" s="6"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="6">
-        <v>1</v>
-      </c>
-      <c r="N59" s="6"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="6">
-        <v>1</v>
-      </c>
-      <c r="N60" s="6"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="6">
-        <v>1</v>
-      </c>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="6">
-        <v>1</v>
-      </c>
-      <c r="N62" s="6"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="6">
-        <v>1</v>
-      </c>
-      <c r="N63" s="6"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="6">
-        <v>1</v>
-      </c>
-      <c r="N64" s="6"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="6">
-        <v>1</v>
-      </c>
-      <c r="N65" s="6"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="6">
-        <v>1</v>
-      </c>
-      <c r="N66" s="6"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="6">
-        <v>1</v>
-      </c>
-      <c r="N67" s="6"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="6">
-        <v>1</v>
-      </c>
-      <c r="N68" s="6"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="6">
-        <v>4</v>
-      </c>
-      <c r="N69" s="6"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="6">
-        <v>4</v>
-      </c>
-      <c r="N70" s="6"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="6">
-        <v>2</v>
-      </c>
-      <c r="N71" s="6"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="6">
-        <v>1</v>
-      </c>
-      <c r="N72" s="6"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="6">
-        <v>1</v>
-      </c>
-      <c r="N73" s="6"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="6">
-        <v>1</v>
-      </c>
-      <c r="N74" s="6"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="6">
-        <v>1</v>
-      </c>
-      <c r="N75" s="6"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="6">
-        <v>1</v>
-      </c>
-      <c r="N76" s="6"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="6">
-        <v>1</v>
-      </c>
-      <c r="N77" s="6"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="6">
-        <v>1</v>
-      </c>
-      <c r="N78" s="6"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="6">
-        <v>1</v>
-      </c>
-      <c r="N79" s="6"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="6">
-        <v>1</v>
-      </c>
-      <c r="N80" s="6"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="11"/>
-      <c r="N81" s="6"/>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="11"/>
-      <c r="N82" s="6"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="N83" s="6"/>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="N84" s="6"/>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="N85" s="6"/>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="N86" s="6"/>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="N87" s="6"/>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="N88" s="6"/>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="N89" s="6"/>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="N90" s="6"/>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="N91" s="6"/>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="N92" s="6"/>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="N93" s="6"/>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="N94" s="6"/>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="N95" s="6"/>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="N96" s="6"/>
-    </row>
-    <row r="97" spans="14:14">
-      <c r="N97" s="6"/>
-    </row>
-    <row r="98" spans="14:14">
-      <c r="N98" s="6"/>
-    </row>
-    <row r="99" spans="14:14">
-      <c r="N99" s="6"/>
-    </row>
-    <row r="100" spans="14:14">
-      <c r="N100" s="6"/>
-    </row>
-    <row r="101" spans="14:14">
-      <c r="N101" s="6"/>
-    </row>
-    <row r="102" spans="14:14">
-      <c r="N102" s="6"/>
-    </row>
-    <row r="103" spans="14:14">
-      <c r="N103" s="6"/>
-    </row>
-    <row r="104" spans="14:14">
-      <c r="N104" s="11"/>
-    </row>
-    <row r="105" spans="14:14">
-      <c r="N105" s="11"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:N80">
-    <sortState ref="A2:P80">
-      <sortCondition ref="E1:E80"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="11080" windowHeight="16980" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="14160" windowWidth="8280" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="432">
   <si>
     <t>QTY</t>
   </si>
@@ -1302,6 +1302,24 @@
   </si>
   <si>
     <t>Ethernet Port</t>
+  </si>
+  <si>
+    <t>MT25Q</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>On pin list?</t>
+  </si>
+  <si>
+    <t>On schematic?</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1427,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1499,8 +1517,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1600,8 +1620,9 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1646,6 +1667,7 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1690,6 +1712,7 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2019,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2031,143 +2054,192 @@
     <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B3" s="32" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>416</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B4" s="30" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B5" s="31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B6" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>419</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B7" s="29" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>420</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>425</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B10" s="33" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+      <c r="D10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>415</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B14" s="32" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>416</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B15" s="30" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>417</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B16" s="31" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>418</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B17" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>419</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>425</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>343</v>
       </c>
     </row>
